--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ε</t>
+          <t>b</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,20 +446,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -473,28 +468,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>S4</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -513,7 +503,6 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -521,7 +510,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>R5</t>
@@ -529,16 +522,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -550,28 +538,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>S4</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
       <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -596,13 +579,8 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -619,7 +597,6 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -629,28 +606,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
-      </c>
-      <c r="G8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -669,7 +641,6 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -679,26 +650,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>12</v>
       </c>
     </row>
@@ -723,13 +689,8 @@
           <t>R4</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -746,7 +707,6 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -763,7 +723,6 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -786,13 +745,8 @@
           <t>R1</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -436,52 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>begin</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>procedure</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>var</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -896,18 +896,18 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -973,18 +973,18 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -1082,22 +1082,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>R11</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>S9</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -1433,25 +1433,25 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>S18</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -2135,12 +2135,12 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>R3</t>
@@ -2244,25 +2244,25 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>S18</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -2328,7 +2328,11 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>R5</t>
@@ -2359,11 +2363,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>R5</t>
@@ -2560,22 +2560,22 @@
           <t>R10</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
@@ -3042,43 +3042,43 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>R27</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>S46</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3169,7 +3169,11 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>R5</t>
@@ -3200,11 +3204,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>R5</t>
@@ -3369,7 +3369,11 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>R11</t>
@@ -3397,22 +3401,18 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>R11</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>R11</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>S9</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -3960,18 +3960,18 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -4037,18 +4037,18 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>R20</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -4114,18 +4114,18 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>R21</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -4191,18 +4191,18 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>R22</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -4268,18 +4268,18 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>R23</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -4345,18 +4345,18 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>R24</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -4422,18 +4422,18 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>R25</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -4499,18 +4499,18 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>R26</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -5416,7 +5416,11 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>S94</t>
@@ -5434,23 +5438,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
         <is>
           <t>S95</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -5656,22 +5656,22 @@
           <t>R18</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -5735,7 +5735,11 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>R16</t>
@@ -5758,25 +5762,21 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
           <t>S18</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
@@ -5927,7 +5927,11 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>R4</t>
@@ -5958,11 +5962,7 @@
           <t>R4</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
           <t>R4</t>
@@ -6040,7 +6040,11 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>R19</t>
@@ -6071,11 +6075,7 @@
           <t>R19</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>R19</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
           <t>R19</t>
@@ -7712,18 +7712,18 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>R54</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>R54</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -7789,18 +7789,18 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>R14</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -7866,18 +7866,18 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>R58</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>R58</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -7943,18 +7943,18 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R61</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -8020,18 +8020,18 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>R29</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>R29</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -9658,7 +9658,11 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>S94</t>
@@ -9676,23 +9680,19 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
         <is>
           <t>S95</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -9821,22 +9821,22 @@
           <t>R17</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -9900,7 +9900,11 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>R3</t>
@@ -9921,17 +9925,13 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>R3</t>
@@ -10007,7 +10007,11 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>R15</t>
@@ -10030,25 +10034,21 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
           <t>S18</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
@@ -10118,7 +10118,11 @@
           <t>103</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>R5</t>
@@ -10149,11 +10153,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
           <t>R5</t>
@@ -10241,7 +10241,11 @@
           <t>104</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>R10</t>
@@ -10267,22 +10271,18 @@
           <t>R10</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
@@ -10350,18 +10350,18 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>R28</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>R28</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -10530,18 +10530,18 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>R38</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>R38</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -10625,18 +10625,18 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>R39</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>R39</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
@@ -10718,18 +10718,18 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>R41</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>R41</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -10811,18 +10811,18 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>R42</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>R42</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -11009,18 +11009,18 @@
           <t>112</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>R14</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
@@ -11102,18 +11102,18 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
@@ -11220,12 +11220,12 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
           <t>R33</t>
@@ -15579,7 +15579,11 @@
           <t>162</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>S214</t>
@@ -15597,23 +15601,19 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
         <is>
           <t>S215</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -15708,7 +15708,11 @@
           <t>163</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>R5</t>
@@ -15739,11 +15743,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
           <t>R5</t>
@@ -15908,18 +15908,18 @@
           <t>165</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>R36</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>R36</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
@@ -16256,43 +16256,43 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
           <t>R27</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>S46</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -17508,12 +17508,12 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
           <t>R57</t>
@@ -19413,7 +19413,11 @@
           <t>202</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="C204" t="inlineStr">
         <is>
           <t>R33</t>
@@ -19434,17 +19438,13 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
           <t>R33</t>
@@ -19452,7 +19452,11 @@
       </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -19463,11 +19467,7 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="X204" t="inlineStr"/>
       <c r="Y204" t="inlineStr"/>
       <c r="Z204" t="inlineStr"/>
       <c r="AA204" t="inlineStr"/>
@@ -20887,7 +20887,11 @@
           <t>220</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
       <c r="C222" t="inlineStr">
         <is>
           <t>R18</t>
@@ -20913,22 +20917,18 @@
           <t>R18</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>R18</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr">
         <is>
@@ -20996,18 +20996,18 @@
           <t>221</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>R37</t>
-        </is>
-      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>R37</t>
+        </is>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
@@ -21081,18 +21081,18 @@
           <t>222</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>R40</t>
-        </is>
-      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>R40</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
@@ -21174,18 +21174,18 @@
           <t>223</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>R43</t>
-        </is>
-      </c>
+      <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>R43</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
@@ -21267,18 +21267,18 @@
           <t>224</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>R32</t>
-        </is>
-      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>R32</t>
+        </is>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
@@ -21888,43 +21888,43 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>S51</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
           <t>R27</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>S46</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K233" t="inlineStr"/>
@@ -22788,7 +22788,11 @@
           <t>241</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C243" t="inlineStr">
         <is>
           <t>S94</t>
@@ -22806,23 +22810,19 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I243" t="inlineStr">
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
         <is>
           <t>S95</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K243" t="inlineStr"/>
@@ -22921,7 +22921,11 @@
           <t>242</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="C244" t="inlineStr">
         <is>
           <t>R57</t>
@@ -22942,17 +22946,13 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
           <t>R57</t>
@@ -22960,7 +22960,11 @@
       </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
@@ -22971,11 +22975,7 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="X244" t="inlineStr"/>
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr"/>
       <c r="AA244" t="inlineStr"/>
@@ -23629,7 +23629,11 @@
           <t>250</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
       <c r="C252" t="inlineStr">
         <is>
           <t>R17</t>
@@ -23655,22 +23659,18 @@
           <t>R17</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>R17</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr">
         <is>
@@ -23738,18 +23738,18 @@
           <t>251</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>R55</t>
-        </is>
-      </c>
+      <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>R55</t>
+        </is>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
@@ -24450,7 +24450,11 @@
           <t>259</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C261" t="inlineStr">
         <is>
           <t>S94</t>
@@ -24468,23 +24472,19 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I261" t="inlineStr">
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
         <is>
           <t>S95</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K261" t="inlineStr"/>
@@ -25428,7 +25428,11 @@
           <t>269</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="C271" t="inlineStr">
         <is>
           <t>R33</t>
@@ -25449,17 +25453,13 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
           <t>R33</t>
@@ -26039,7 +26039,11 @@
           <t>276</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C278" t="inlineStr">
         <is>
           <t>S214</t>
@@ -26057,23 +26061,19 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
         <is>
           <t>S215</t>
-        </is>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K278" t="inlineStr"/>
@@ -26168,7 +26168,11 @@
           <t>277</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="C279" t="inlineStr">
         <is>
           <t>R57</t>
@@ -26189,17 +26193,13 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
         <is>
           <t>R57</t>
@@ -26623,7 +26623,11 @@
           <t>282</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>S51</t>
+        </is>
+      </c>
       <c r="C284" t="inlineStr">
         <is>
           <t>S214</t>
@@ -26641,23 +26645,19 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="I284" t="inlineStr">
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
         <is>
           <t>S215</t>
-        </is>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>S51</t>
         </is>
       </c>
       <c r="K284" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -436,52 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>read</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>write</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>begin</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>procedure</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1052,37 +1052,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>R11</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>S9</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1406,50 +1406,50 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>R16</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>S14</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -2110,48 +2110,48 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -2217,50 +2217,50 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>R15</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>S31</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -2530,37 +2530,37 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>R10</t>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>S21</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -3040,48 +3040,48 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S46</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>S52</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>R27</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>S46</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -3371,37 +3371,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>R11</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>R11</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>S9</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4655,12 +4655,12 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -4766,12 +4766,12 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>R56</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -4865,12 +4865,12 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>S76</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -5416,44 +5416,44 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>S93</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>S94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>S93</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>S95</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>S95</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -5626,37 +5626,37 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
           <t>R18</t>
@@ -5735,37 +5735,37 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>R16</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>R16</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -6159,12 +6159,12 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>S112</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -6450,12 +6450,12 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>S129</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -6555,12 +6555,12 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -6763,12 +6763,12 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>R44</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -6848,12 +6848,12 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>R45</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -7272,12 +7272,12 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -8099,12 +8099,12 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>S149</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -8178,12 +8178,12 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>S149</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -8257,12 +8257,12 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>S149</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -8336,12 +8336,12 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>S149</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -9251,12 +9251,12 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>R56</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -9350,12 +9350,12 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>S157</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -9658,44 +9658,44 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>S93</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>S94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>S93</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>S95</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>S95</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
@@ -9791,37 +9791,37 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>R17</t>
@@ -9900,44 +9900,44 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
@@ -10007,37 +10007,37 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>R15</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>S18</t>
+          <t>R15</t>
         </is>
       </c>
       <c r="L104" t="inlineStr"/>
@@ -10241,37 +10241,37 @@
           <t>104</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>R10</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
@@ -10439,12 +10439,12 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>S112</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -10906,12 +10906,12 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -11195,48 +11195,48 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
@@ -11304,12 +11304,12 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>S129</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -11409,12 +11409,12 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>R48</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -11502,12 +11502,12 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>R49</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -11595,12 +11595,12 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>R50</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -11688,12 +11688,12 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>R51</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -11781,12 +11781,12 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>R52</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -11874,12 +11874,12 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>R53</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -12054,12 +12054,12 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>S129</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -12521,12 +12521,12 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -12917,12 +12917,12 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -13010,12 +13010,12 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -13101,12 +13101,12 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>R46</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -13186,12 +13186,12 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>R47</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -13358,12 +13358,12 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -13825,12 +13825,12 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -14292,12 +14292,12 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -14802,12 +14802,12 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>S200</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -15579,44 +15579,44 @@
           <t>162</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>S213</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>S214</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>S213</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>S215</t>
+        </is>
+      </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>S215</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
@@ -15995,12 +15995,12 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>S112</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>S112</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -16254,48 +16254,48 @@
           <t>169</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>S46</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>S52</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>R27</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>S46</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
@@ -16547,12 +16547,12 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>S129</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -16640,12 +16640,12 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>S129</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
@@ -17317,12 +17317,12 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
@@ -17483,48 +17483,48 @@
           <t>182</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="I184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
@@ -17592,12 +17592,12 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -17784,12 +17784,12 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -18251,12 +18251,12 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
@@ -18633,12 +18633,12 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>S200</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
@@ -19116,12 +19116,12 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
@@ -19413,50 +19413,46 @@
           <t>202</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
@@ -19467,7 +19463,11 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="Y204" t="inlineStr"/>
       <c r="Z204" t="inlineStr"/>
       <c r="AA204" t="inlineStr"/>
@@ -20292,12 +20292,12 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
@@ -20403,12 +20403,12 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>R56</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
@@ -20502,12 +20502,12 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>S31</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
@@ -20887,37 +20887,37 @@
           <t>220</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>R18</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
@@ -21886,48 +21886,48 @@
           <t>231</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>S45</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>S44</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>S46</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
         <is>
           <t>S52</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>S53</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>R27</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>S46</t>
-        </is>
-      </c>
-      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr"/>
@@ -22179,12 +22179,12 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
@@ -22272,12 +22272,12 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>S191</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
@@ -22529,12 +22529,12 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>S200</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
@@ -22622,12 +22622,12 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>S200</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
@@ -22788,44 +22788,44 @@
           <t>241</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>S93</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>S94</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>S93</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>S95</t>
+        </is>
+      </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr">
         <is>
-          <t>S95</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr">
         <is>
@@ -22921,50 +22921,46 @@
           <t>242</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="M244" t="inlineStr"/>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
@@ -22975,7 +22971,11 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr"/>
       <c r="AA244" t="inlineStr"/>
@@ -23030,12 +23030,12 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>S267</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
@@ -23212,12 +23212,12 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>S72</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
@@ -23629,37 +23629,37 @@
           <t>250</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>R17</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr">
         <is>
@@ -24450,44 +24450,44 @@
           <t>259</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>S93</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>S94</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>S93</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>S95</t>
+        </is>
+      </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>S95</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr">
         <is>
@@ -24672,12 +24672,12 @@
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>S267</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
@@ -25139,12 +25139,12 @@
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>S143</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
@@ -25428,44 +25428,44 @@
           <t>269</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="D271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
-      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr">
         <is>
@@ -25780,12 +25780,12 @@
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>S267</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
@@ -25873,12 +25873,12 @@
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>S267</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
@@ -26039,44 +26039,44 @@
           <t>276</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>S213</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>S214</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>S213</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>S215</t>
+        </is>
+      </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr">
         <is>
-          <t>S215</t>
-        </is>
-      </c>
-      <c r="K278" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr">
         <is>
@@ -26168,44 +26168,44 @@
           <t>277</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
-      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="inlineStr">
         <is>
@@ -26623,44 +26623,44 @@
           <t>282</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>S213</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>S214</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
         <is>
           <t>S51</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>S213</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>S53</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>S215</t>
+        </is>
+      </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr">
         <is>
-          <t>S215</t>
-        </is>
-      </c>
-      <c r="K284" t="inlineStr"/>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>S53</t>
+        </is>
+      </c>
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr">
         <is>
